--- a/scripts/meta/JIRA-161-DSRMWS-FORM_DATA_CLEANUP/FORMS_CLEANUP_BY_DB_SCRIPT.xlsx
+++ b/scripts/meta/JIRA-161-DSRMWS-FORM_DATA_CLEANUP/FORMS_CLEANUP_BY_DB_SCRIPT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\meta\jira161-DSRMWS-161\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9085297C-2718-4B43-A2C1-DE1B2C2C8462}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1075959-E42E-4782-A068-06C8FE356CF5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{334B52C9-0951-4542-98FB-54F689578DBC}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="46">
   <si>
     <t>TABLE NAME</t>
   </si>
@@ -56,9 +56,6 @@
   </si>
   <si>
     <t xml:space="preserve">TA_PROTO_CSI_EXT   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">VALID RELATION TO </t>
   </si>
   <si>
     <t>QUEST_ATTRIBUTES_EXT</t>
@@ -233,6 +230,12 @@
   <si>
     <t xml:space="preserve">QC_RECS_EXT.P_QC_IDSEQ
 QC_RECS_EXT.C_QC_IDSEQ </t>
+  </si>
+  <si>
+    <t>VALID RECORDS ALGORITHM</t>
+  </si>
+  <si>
+    <t>INVALID RECORDS ALGORITHM</t>
   </si>
 </sst>
 </file>
@@ -806,16 +809,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="33" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C1" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="17"/>
       <c r="G1" s="17"/>
@@ -837,7 +840,7 @@
     </row>
     <row r="2" spans="1:22" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B2" s="22"/>
       <c r="C2" s="22"/>
@@ -858,7 +861,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C3" s="26">
         <v>2089798</v>
@@ -881,10 +884,10 @@
     </row>
     <row r="4" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C4" s="26">
         <v>330418</v>
@@ -901,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5" s="26">
         <v>2678480</v>
@@ -915,10 +918,10 @@
     </row>
     <row r="6" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C6" s="26">
         <v>62673</v>
@@ -930,10 +933,10 @@
     </row>
     <row r="7" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="25" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C7" s="26">
         <v>330448</v>
@@ -945,10 +948,10 @@
     </row>
     <row r="8" spans="1:22" ht="29" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="26">
         <v>2089798</v>
@@ -963,7 +966,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C9" s="26">
         <v>2661725</v>
@@ -977,7 +980,7 @@
     </row>
     <row r="10" spans="1:22" s="31" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A10" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -1004,7 +1007,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="13">
         <v>218296</v>
@@ -1013,7 +1016,7 @@
         <v>0</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="19"/>
@@ -1030,7 +1033,7 @@
         <v>7</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="13">
         <v>24</v>
@@ -1039,7 +1042,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -1056,7 +1059,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="13">
         <v>16811</v>
@@ -1065,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -1079,10 +1082,10 @@
     </row>
     <row r="14" spans="1:22" s="10" customFormat="1" ht="104.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C14" s="13">
         <v>328</v>
@@ -1091,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -1115,158 +1118,173 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{726411A6-7C3B-46DE-8527-7A43C5A70038}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="21.81640625" customWidth="1"/>
     <col min="2" max="2" width="25.1796875" customWidth="1"/>
-    <col min="3" max="3" width="32.90625" customWidth="1"/>
+    <col min="3" max="4" width="32.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3"/>
-    </row>
-    <row r="2" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2" spans="1:6" ht="87" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="87" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="8">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="275.5" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>18</v>
-      </c>
       <c r="C3" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="8">
+        <v>10</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="8"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="8"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
-    </row>
-    <row r="13" spans="1:5" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:6" ht="101.5" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
